--- a/src/test/resources/data/TestData_template.xlsx
+++ b/src/test/resources/data/TestData_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>URL</t>
   </si>
@@ -55,17 +55,20 @@
   </si>
   <si>
     <t>HEADER 1</t>
+  </si>
+  <si>
+    <t>IS NA GIF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,16 +129,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -156,7 +173,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,6 +248,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -266,6 +300,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,7 +497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -454,28 +505,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="100.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="79.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="125.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="100.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="79.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="125.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="255" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="198.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="248.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="141.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="198.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="248.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="141.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,6 +562,9 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -520,25 +574,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="58.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="145.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="145.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="166" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -565,6 +619,9 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/TestData_template.xlsx
+++ b/src/test/resources/data/TestData_template.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5960" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="BrandItemPageData" sheetId="52" r:id="rId2"/>
     <sheet name="BrandPageData" sheetId="53" r:id="rId3"/>
+    <sheet name="BrandReviewPageData" sheetId="54" r:id="rId4"/>
+    <sheet name="BrandItemReviewPageData" sheetId="55" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>URL</t>
   </si>
@@ -475,7 +477,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -543,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -598,4 +600,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>